--- a/src/main/webapp/doc/CLPS_SMS 会议管理系统数据库表 v1.0_20181102.xlsx
+++ b/src/main/webapp/doc/CLPS_SMS 会议管理系统数据库表 v1.0_20181102.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="757" activeTab="4"/>
+    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="757" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -12,16 +12,18 @@
     <sheet name="SM_Account" sheetId="6" r:id="rId3"/>
     <sheet name="SM_Employee" sheetId="1" r:id="rId4"/>
     <sheet name="SM_Menu" sheetId="3" r:id="rId5"/>
-    <sheet name="SM_Position" sheetId="8" r:id="rId6"/>
-    <sheet name="SM_Department" sheetId="10" r:id="rId7"/>
-    <sheet name="Log" sheetId="9" r:id="rId8"/>
+    <sheet name="SM_RoleGroup" sheetId="11" r:id="rId6"/>
+    <sheet name="SM_Position" sheetId="8" r:id="rId7"/>
+    <sheet name="SM_Department" sheetId="10" r:id="rId8"/>
+    <sheet name="SM_Permission" sheetId="12" r:id="rId9"/>
+    <sheet name="Log" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>SMS 数据库历史更新跟踪表</t>
   </si>
@@ -170,7 +172,7 @@
     <t>created_time</t>
   </si>
   <si>
-    <t>35</t>
+    <t>timestamp</t>
   </si>
   <si>
     <t>2017-01-10 18:00:00</t>
@@ -356,7 +358,7 @@
     <t>父节点</t>
   </si>
   <si>
-    <t>Menu_parentId</t>
+    <t>menu_parentId</t>
   </si>
   <si>
     <t>菜单编号父节点</t>
@@ -389,6 +391,12 @@
     <t>9</t>
   </si>
   <si>
+    <t>角色授权表</t>
+  </si>
+  <si>
+    <t>SM_Role_grant</t>
+  </si>
+  <si>
     <t>position主键id</t>
   </si>
   <si>
@@ -404,22 +412,134 @@
     <t>角色组授权表</t>
   </si>
   <si>
-    <t>SM_Group_grant</t>
-  </si>
-  <si>
-    <t>用户组编号</t>
-  </si>
-  <si>
-    <t>user_group_id</t>
-  </si>
-  <si>
-    <t>用户组主键id</t>
+    <t>SM_RoleGroup_grant</t>
+  </si>
+  <si>
+    <t>角色组编号</t>
+  </si>
+  <si>
+    <t>rolegroup_id</t>
+  </si>
+  <si>
+    <t>角色组主键id</t>
   </si>
   <si>
     <t>rolegroup表</t>
   </si>
   <si>
-    <t>账户日志</t>
+    <t>角色组</t>
+  </si>
+  <si>
+    <t>SM_RoleGroup</t>
+  </si>
+  <si>
+    <t>角色组名称</t>
+  </si>
+  <si>
+    <t>rolegroup_name</t>
+  </si>
+  <si>
+    <t>角色组描述</t>
+  </si>
+  <si>
+    <t>rolegroupt_described</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>职位名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>osition_name</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-10 18:00:00 </t>
   </si>
   <si>
     <t>部门</t>
@@ -513,6 +633,9 @@
     <t>Log_Account</t>
   </si>
   <si>
+    <t>账户日志</t>
+  </si>
+  <si>
     <t>log_id</t>
   </si>
   <si>
@@ -560,10 +683,10 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,10 +735,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,14 +745,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -652,6 +766,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -659,17 +780,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,46 +809,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,10 +833,48 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -764,24 +886,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,19 +946,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +994,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,43 +1096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,85 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,15 +1198,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1108,6 +1213,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1119,30 +1233,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,6 +1271,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1189,161 +1303,161 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,14 +1554,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1455,10 +1569,16 @@
     <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1473,16 +1593,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1895,7 +2015,7 @@
   <dimension ref="E2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1908,271 +2028,271 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:12">
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="4" spans="5:13">
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48" t="s">
+      <c r="K4" s="50"/>
+      <c r="L4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="5:13">
-      <c r="E5" s="49">
+      <c r="E5" s="51">
         <v>1</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="50">
-        <v>43406</v>
-      </c>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="52">
+        <v>43413</v>
+      </c>
+      <c r="H5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49" t="s">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="5:13">
-      <c r="E6" s="49">
+      <c r="E6" s="51">
         <v>2</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="5:13">
-      <c r="E7" s="49">
+      <c r="E7" s="51">
         <v>3</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="5:13">
-      <c r="E8" s="49">
+      <c r="E8" s="51">
         <v>4</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="5:13">
-      <c r="E9" s="49">
+      <c r="E9" s="51">
         <v>5</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="5:13">
-      <c r="E10" s="49">
+      <c r="E10" s="51">
         <v>6</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="5:13">
-      <c r="E11" s="49">
+      <c r="E11" s="51">
         <v>7</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="5:13">
-      <c r="E12" s="49">
+      <c r="E12" s="51">
         <v>8</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="5:13">
-      <c r="E13" s="49">
+      <c r="E13" s="51">
         <v>9</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="5:13">
-      <c r="E14" s="49">
+      <c r="E14" s="51">
         <v>10</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="5:13">
-      <c r="E15" s="49">
+      <c r="E15" s="51">
         <v>11</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="5:13">
-      <c r="E16" s="49">
+      <c r="E16" s="51">
         <v>12</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="5:13">
-      <c r="E17" s="49">
+      <c r="E17" s="51">
         <v>13</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="5:13">
-      <c r="E18" s="49">
+      <c r="E18" s="51">
         <v>14</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="5:13">
-      <c r="E19" s="49">
+      <c r="E19" s="51">
         <v>15</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
     </row>
     <row r="20" spans="5:13">
-      <c r="E20" s="49">
+      <c r="E20" s="51">
         <v>16</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="49">
+      <c r="E21" s="51">
         <v>17</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2183,12 +2303,2166 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="22.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="28.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="11.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="16.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="16.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="15.5555555555556" customWidth="1"/>
+    <col min="13" max="14" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="14"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" ht="17.4" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="27"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="14"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="14"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="14"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" ht="17.4" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="14"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="14"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="14"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" ht="17.4" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="14"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="14"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="14"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+    </row>
+    <row r="45" ht="17.4" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="27"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="17"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="14"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="14"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="14"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+    </row>
+    <row r="56" ht="17.4" spans="1:14">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="27"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="17"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="17"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="17"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="14"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="14"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="14"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" ht="17.4" spans="1:14">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="27"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="18"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="17"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="17"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="17"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="14"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="14"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="14"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+    </row>
+    <row r="80" ht="17.4" spans="1:14">
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="27"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="18"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="17"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="19"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="17"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="17"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" s="19"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="17"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="14"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="14"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="14"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
@@ -2206,7 +4480,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2214,7 +4488,7 @@
     <col min="1" max="1" width="6.12962962962963" style="22" customWidth="1"/>
     <col min="2" max="2" width="23.6296296296296" style="22" customWidth="1"/>
     <col min="3" max="3" width="20.3796296296296" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.8888888888889" style="22" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="22" customWidth="1"/>
     <col min="6" max="6" width="7.62962962962963" style="22" customWidth="1"/>
     <col min="7" max="7" width="7.37962962962963" style="22" customWidth="1"/>
@@ -2332,7 +4606,7 @@
       <c r="N3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="42"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="14" t="s">
@@ -2361,8 +4635,8 @@
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="14" t="s">
@@ -2431,11 +4705,9 @@
         <v>48</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
@@ -2459,7 +4731,7 @@
       <c r="B8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -2491,11 +4763,9 @@
         <v>58</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
         <v>55</v>
       </c>
@@ -2545,40 +4815,40 @@
       <c r="N11" s="21"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2592,7 +4862,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2684,7 +4954,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="40">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2718,10 +4988,10 @@
       <c r="N3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="42"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="40">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2747,11 +5017,11 @@
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="40">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2779,7 +5049,7 @@
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="40">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2807,7 +5077,7 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="40">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -2837,7 +5107,7 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="40">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -2867,7 +5137,7 @@
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="40">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -2897,7 +5167,7 @@
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="40">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -2925,7 +5195,7 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="40">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -2951,7 +5221,7 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="40">
+      <c r="A12" s="42">
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2961,11 +5231,9 @@
         <v>86</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="17" t="s">
         <v>32</v>
       </c>
@@ -2979,7 +5247,7 @@
       <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="40">
+      <c r="A13" s="42">
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -3007,7 +5275,7 @@
       <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="40">
+      <c r="A14" s="42">
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -3017,11 +5285,9 @@
         <v>48</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="17" t="s">
         <v>32</v>
       </c>
@@ -3039,13 +5305,13 @@
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="40">
+      <c r="A15" s="42">
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -3067,7 +5333,7 @@
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="40">
+      <c r="A16" s="42">
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -3077,11 +5343,9 @@
         <v>58</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="17" t="s">
         <v>55</v>
       </c>
@@ -3358,7 +5622,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" s="39" customFormat="1" spans="1:14">
+    <row r="33" s="41" customFormat="1" spans="1:14">
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
@@ -3527,25 +5791,25 @@
       <c r="N38" s="21"/>
     </row>
     <row r="39" spans="11:11">
-      <c r="K39" s="41"/>
+      <c r="K39" s="43"/>
     </row>
     <row r="40" spans="8:11">
-      <c r="H40" s="41"/>
-      <c r="K40" s="41"/>
+      <c r="H40" s="43"/>
+      <c r="K40" s="43"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-    </row>
-    <row r="56" s="39" customFormat="1" spans="2:11">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+    </row>
+    <row r="56" s="41" customFormat="1" spans="2:11">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -3557,7 +5821,7 @@
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" s="39" customFormat="1" spans="2:11">
+    <row r="57" s="41" customFormat="1" spans="2:11">
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -3569,7 +5833,7 @@
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
     </row>
-    <row r="70" s="39" customFormat="1" spans="2:11">
+    <row r="70" s="41" customFormat="1" spans="2:11">
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -3582,40 +5846,40 @@
       <c r="K70" s="22"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3629,18 +5893,20 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="31.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="12.5555555555556" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9" style="40"/>
     <col min="7" max="7" width="6.62962962962963" customWidth="1"/>
     <col min="8" max="8" width="6.12962962962963" customWidth="1"/>
     <col min="9" max="9" width="6.62962962962963" customWidth="1"/>
-    <col min="10" max="10" width="17.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="24.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="13.25" customWidth="1"/>
   </cols>
@@ -3655,7 +5921,7 @@
       <c r="C1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="14" t="s">
@@ -3667,13 +5933,13 @@
       <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -3709,13 +5975,13 @@
       <c r="C3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -3745,13 +6011,13 @@
       <c r="C4" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="16"/>
@@ -3773,13 +6039,13 @@
       <c r="C5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="16"/>
@@ -3803,13 +6069,13 @@
       <c r="C6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="16"/>
@@ -3833,13 +6099,13 @@
       <c r="C7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="16"/>
@@ -3892,11 +6158,9 @@
         <v>48</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
         <v>32</v>
       </c>
@@ -3920,7 +6184,7 @@
       <c r="B10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -3952,11 +6216,9 @@
         <v>58</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
         <v>55</v>
       </c>
@@ -3973,6 +6235,18 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
     </row>
+    <row r="14" ht="15.6" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="32"/>
+    </row>
     <row r="15" spans="1:14">
       <c r="A15" s="14" t="s">
         <v>1</v>
@@ -3983,13 +6257,13 @@
       <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -4025,13 +6299,13 @@
       <c r="C16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="16"/>
@@ -4041,10 +6315,10 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -4059,13 +6333,13 @@
       <c r="C17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="16"/>
@@ -4075,10 +6349,10 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -4088,12 +6362,12 @@
         <v>12</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="33"/>
+        <v>129</v>
+      </c>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="14" t="s">
@@ -4105,13 +6379,13 @@
       <c r="C22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
@@ -4142,18 +6416,18 @@
         <v>1</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="16"/>
@@ -4163,10 +6437,10 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -4181,13 +6455,13 @@
       <c r="C24" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="16"/>
@@ -4197,10 +6471,10 @@
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
@@ -4214,16 +6488,317 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="22.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="20.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="16.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="21.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="12.2222222222222" customWidth="1"/>
     <col min="12" max="12" width="14.8888888888889" customWidth="1"/>
   </cols>
@@ -4236,7 +6811,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -4295,28 +6870,58 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="17"/>
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="28"/>
+      <c r="J3" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="17"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="21"/>
       <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="14"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="19"/>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
@@ -4327,28 +6932,54 @@
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="14"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="G5" s="19"/>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="17"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="M5" s="21"/>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="14"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="21"/>
       <c r="I6" s="18"/>
@@ -4359,28 +6990,54 @@
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="14"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="21"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="14"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="21"/>
       <c r="I8" s="18"/>
@@ -4391,17 +7048,31 @@
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="14"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
@@ -4441,7 +7112,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="14"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
       <c r="F12" s="17"/>
@@ -4457,7 +7128,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="14"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
@@ -4470,25 +7141,42 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
     </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="25.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="23.2222222222222" customWidth="1"/>
     <col min="11" max="11" width="16.6666666666667" customWidth="1"/>
     <col min="12" max="12" width="21.1111111111111" customWidth="1"/>
@@ -4500,12 +7188,12 @@
         <v>12</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
@@ -4565,10 +7253,10 @@
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -4601,11 +7289,11 @@
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>135</v>
+      <c r="B4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
@@ -4621,7 +7309,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="28"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="38"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="21"/>
       <c r="N4" s="17"/>
     </row>
@@ -4629,11 +7317,11 @@
       <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>137</v>
+      <c r="B5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
@@ -4649,7 +7337,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="28"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="38"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="21"/>
       <c r="N5" s="17"/>
     </row>
@@ -4657,11 +7345,11 @@
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>139</v>
+      <c r="B6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>30</v>
@@ -4669,7 +7357,7 @@
       <c r="E6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="19"/>
@@ -4677,12 +7365,12 @@
       <c r="I6" s="18"/>
       <c r="J6" s="28"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="36" t="s">
-        <v>140</v>
+      <c r="L6" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="M6" s="21"/>
-      <c r="N6" s="36" t="s">
-        <v>141</v>
+      <c r="N6" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4693,7 +7381,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>30</v>
@@ -4752,11 +7440,9 @@
         <v>48</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="17" t="s">
         <v>32</v>
       </c>
@@ -4780,7 +7466,7 @@
       <c r="B10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -4812,11 +7498,9 @@
         <v>58</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
         <v>55</v>
       </c>
@@ -4839,2155 +7523,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="22.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="28.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="11.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="16.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="16.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="15.5555555555556" customWidth="1"/>
-    <col min="13" max="14" width="14.1111111111111" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.4" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="14"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" ht="17.4" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="27"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="14"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="14"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-    </row>
-    <row r="23" ht="17.4" spans="1:14">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="27"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="17"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="17"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="17"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="17"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="14"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="14"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="14"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-    </row>
-    <row r="34" ht="17.4" spans="1:14">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="27"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="17"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="17"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="17"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="17"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="14"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="14"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="14"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-    </row>
-    <row r="45" ht="17.4" spans="1:14">
-      <c r="A45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="27"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="17"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="17"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="17"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="17"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="14"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="14"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="14"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-    </row>
-    <row r="56" ht="17.4" spans="1:14">
-      <c r="A56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="27"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="17"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="17"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="17"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="17"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="14"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="14"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="14"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-    </row>
-    <row r="68" ht="17.4" spans="1:14">
-      <c r="A68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="27"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="17"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="17"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="17"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="17"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="14"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="14"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="14"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-    </row>
-    <row r="80" ht="17.4" spans="1:14">
-      <c r="A80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="27"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M81" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N81" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="17"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="17"/>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="17"/>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="17"/>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="14"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="14"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="14"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
